--- a/opensis-ui/src/assets/demo_docs/student_data_for_import.xlsx
+++ b/opensis-ui/src/assets/demo_docs/student_data_for_import.xlsx
@@ -1,142 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarun\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="435" windowWidth="19815" windowHeight="7650"/>
+    <workbookView xWindow="480" yWindow="435" windowWidth="19815" windowHeight="7650" tabRatio="209"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Student ID</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>11th</t>
-  </si>
-  <si>
-    <t>Sep/2/1993</t>
-  </si>
-  <si>
-    <t>Mar/2/1995</t>
-  </si>
-  <si>
-    <t>Aug/6/1992</t>
-  </si>
-  <si>
-    <t>Jan/18/1995</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
-    <t>Section A</t>
-  </si>
-  <si>
-    <t>Section B</t>
-  </si>
-  <si>
-    <t>Section C</t>
-  </si>
-  <si>
-    <t>Section D</t>
-  </si>
-  <si>
-    <t>Landon</t>
-  </si>
-  <si>
-    <t>Donovan</t>
-  </si>
-  <si>
-    <t>Clint</t>
-  </si>
-  <si>
-    <t>Dempsey</t>
-  </si>
-  <si>
-    <t>Brad</t>
-  </si>
-  <si>
-    <t>Friedel</t>
-  </si>
-  <si>
-    <t>Sacha</t>
-  </si>
-  <si>
-    <t>Kljestan</t>
-  </si>
-  <si>
-    <t>Bengali</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Australia</t>
+    <t>Alternate ID</t>
+  </si>
+  <si>
+    <t>District ID</t>
+  </si>
+  <si>
+    <t>State ID</t>
+  </si>
+  <si>
+    <t>Admission Number</t>
+  </si>
+  <si>
+    <t>Roll Number</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>Social Security Number</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Country of Birth</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>First Language</t>
+  </si>
+  <si>
+    <t>Second Language</t>
+  </si>
+  <si>
+    <t>Third Language</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Personal Email</t>
+  </si>
+  <si>
+    <t>School Email</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Street Address 1</t>
+  </si>
+  <si>
+    <t>Street Address 2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Bus No</t>
+  </si>
+  <si>
+    <t>Login Email Address</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Common Name</t>
+  </si>
+  <si>
+    <t>Maiden Name</t>
+  </si>
+  <si>
+    <t>Other Govt Issued Number</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Mailing Street Address 1</t>
+  </si>
+  <si>
+    <t>Mailing Street Address 2</t>
+  </si>
+  <si>
+    <t>Mailing City</t>
+  </si>
+  <si>
+    <t>Mailing State</t>
+  </si>
+  <si>
+    <t>Mailing Zip</t>
+  </si>
+  <si>
+    <t>Mailing Country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,12 +208,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,10 +308,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,7 +342,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,204 +517,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <pane xSplit="20025" topLeftCell="N1"/>
+      <selection activeCell="AG4" sqref="AG4"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="8" width="16" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" customWidth="1"/>
+    <col min="25" max="25" width="20.5703125" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" customWidth="1"/>
+    <col min="27" max="27" width="18" customWidth="1"/>
+    <col min="28" max="28" width="21.85546875" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" customWidth="1"/>
+    <col min="32" max="32" width="13" customWidth="1"/>
+    <col min="33" max="33" width="12.42578125" customWidth="1"/>
+    <col min="34" max="34" width="21.42578125" customWidth="1"/>
+    <col min="35" max="35" width="18.42578125" customWidth="1"/>
+    <col min="36" max="36" width="17" customWidth="1"/>
+    <col min="37" max="37" width="14.7109375" customWidth="1"/>
+    <col min="38" max="38" width="13.85546875" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" customWidth="1"/>
+    <col min="40" max="40" width="16" customWidth="1"/>
+    <col min="41" max="41" width="16.85546875" customWidth="1"/>
+    <col min="42" max="42" width="26.7109375" customWidth="1"/>
+    <col min="43" max="43" width="26.140625" customWidth="1"/>
+    <col min="44" max="44" width="20.140625" customWidth="1"/>
+    <col min="45" max="45" width="13.5703125" customWidth="1"/>
+    <col min="46" max="46" width="14.85546875" customWidth="1"/>
+    <col min="47" max="47" width="12.140625" customWidth="1"/>
+    <col min="48" max="48" width="14.140625" customWidth="1"/>
+    <col min="49" max="49" width="13" customWidth="1"/>
+    <col min="50" max="50" width="15" customWidth="1"/>
+    <col min="51" max="51" width="23.28515625" customWidth="1"/>
+    <col min="53" max="53" width="15.42578125" customWidth="1"/>
+    <col min="54" max="54" width="20.7109375" customWidth="1"/>
+    <col min="55" max="56" width="28.85546875" customWidth="1"/>
+    <col min="57" max="57" width="30.5703125" customWidth="1"/>
+    <col min="58" max="58" width="22.42578125" customWidth="1"/>
+    <col min="59" max="59" width="16.85546875" customWidth="1"/>
+    <col min="60" max="60" width="19.140625" customWidth="1"/>
+    <col min="61" max="61" width="27.28515625" customWidth="1"/>
+    <col min="63" max="63" width="21.5703125" customWidth="1"/>
+    <col min="64" max="64" width="21.42578125" customWidth="1"/>
+    <col min="65" max="65" width="16.85546875" customWidth="1"/>
+    <col min="66" max="66" width="31.5703125" customWidth="1"/>
+    <col min="67" max="67" width="22.85546875" customWidth="1"/>
+    <col min="68" max="68" width="13.140625" customWidth="1"/>
+    <col min="70" max="70" width="25.28515625" customWidth="1"/>
+    <col min="71" max="71" width="12.5703125" customWidth="1"/>
+    <col min="72" max="72" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:50" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>